--- a/homework/22_2022_СЗН.xlsx
+++ b/homework/22_2022_СЗН.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Олег\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Олег\Desktop\Учеба МАГА\Тер.вер и мат.стат\1 пара\ДЗ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D08B92-F5F9-4B98-B7CF-0D39B176B83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC2591B-8E6B-427C-BA66-BEBA89871E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,20 +17,6 @@
   </sheets>
   <definedNames>
     <definedName name="_Toc14282376" localSheetId="0">'22'!$A$2</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'22'!$A$5:$A$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'22'!$B$5:$B$21</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'22'!$A$5:$A$21</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'22'!$B$5:$B$21</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'22'!$A$5:$A$21</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'22'!$B$5:$B$21</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'22'!$A$5:$A$21</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'22'!$B$5:$B$21</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'22'!$A$5:$A$21</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'22'!$B$5:$B$21</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'22'!$A$5:$A$21</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'22'!$B$5:$B$21</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'22'!$A$5:$A$21</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'22'!$B$5:$B$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'22'!$A$1:$F$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -150,9 +136,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="###\ ###\ ###\ ###\ ###\ ##0.0"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="###\ ###\ ###\ ###\ ###\ ##0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -403,13 +389,10 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -423,13 +406,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -450,7 +433,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -468,15 +451,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -486,6 +469,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -493,36 +479,6 @@
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -541,27 +497,7 @@
         <charset val="204"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="169" formatCode="#,##0.0"/>
+      <numFmt numFmtId="166" formatCode="#,##0.0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -596,7 +532,7 @@
         <charset val="204"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="169" formatCode="#,##0.0"/>
+      <numFmt numFmtId="166" formatCode="#,##0.0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -633,7 +569,7 @@
         <charset val="204"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="169" formatCode="#,##0.0"/>
+      <numFmt numFmtId="166" formatCode="#,##0.0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -670,7 +606,7 @@
         <charset val="204"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="169" formatCode="#,##0.0"/>
+      <numFmt numFmtId="166" formatCode="#,##0.0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -707,7 +643,7 @@
         <charset val="204"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="169" formatCode="#,##0.0"/>
+      <numFmt numFmtId="166" formatCode="#,##0.0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -769,25 +705,75 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1794,15 +1780,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56BAB8D2-A897-446A-BCB7-5E330746B1A4}" name="Таблица1" displayName="Таблица1" ref="A4:F21" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56BAB8D2-A897-446A-BCB7-5E330746B1A4}" name="Таблица1" displayName="Таблица1" ref="A4:F21" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="A4:F21" xr:uid="{56BAB8D2-A897-446A-BCB7-5E330746B1A4}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1132758F-94EA-4562-B2A7-EEC1564A5666}" name="Возраст" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{DC78D658-B45A-45BA-9DEC-CB410FCFBC9F}" name="Да, ежедневно " dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{C3C117DF-2265-4B95-A15D-F5A7C471417D}" name="Не каждый день (периодически) " dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{E9068541-8C74-4E01-B968-C437263796F9}" name="Нет, совсем не курю и не курил ранее " dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{F3D250A4-13E1-4159-B424-A9BF6D0FD3B9}" name="Бросил курить" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{5BA00DF9-2189-4033-BDE4-D8811000AFE5}" name="Отказ от ответа " dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1132758F-94EA-4562-B2A7-EEC1564A5666}" name="Возраст" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{DC78D658-B45A-45BA-9DEC-CB410FCFBC9F}" name="Да, ежедневно " dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{C3C117DF-2265-4B95-A15D-F5A7C471417D}" name="Не каждый день (периодически) " dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{E9068541-8C74-4E01-B968-C437263796F9}" name="Нет, совсем не курю и не курил ранее " dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{F3D250A4-13E1-4159-B424-A9BF6D0FD3B9}" name="Бросил курить" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{5BA00DF9-2189-4033-BDE4-D8811000AFE5}" name="Отказ от ответа " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2101,39 +2087,39 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="48.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="3"/>
-    <col min="11" max="11" width="26.140625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="29.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="48.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="26.140625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="F1" s="4" t="s">
+      <c r="A1" s="1"/>
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3"/>
@@ -2141,509 +2127,509 @@
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6">
+      <c r="A5" s="10"/>
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>3</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>4</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>16.417995228415435</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>2.8145683291210126</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>68.630926565013922</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>11.586534232833234</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>0.54997564461639625</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>3.1836605256229622</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>1.5765905960537869</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>93.250285561586438</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>1.2117618839954218</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>0.7777014327413877</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>1.300843210630352</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>0.8223361708740845</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>96.848859623390751</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>0.25849508137401633</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>0.76946591373078455</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>10.730689659388446</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>3.6244346922145216</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>80.256459895255986</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>4.7103942923034312</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>0.67802146083761761</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>15.407079002778424</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>4.5586473944944128</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>70.855763983789672</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>8.5772881173286031</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>0.60122150160889309</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>18.662320372857486</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>4.1667312614187901</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>66.647847587026646</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>9.8952046762220416</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>0.62789610247503347</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>21.807080253464122</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>4.4332982292092327</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>61.672863827460809</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>11.329623177301507</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>0.75713451256433195</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>25.085814499821982</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>4.0668966911617188</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>58.860938089275862</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>11.063911702688928</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>0.92243901705150877</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>25.47102056368767</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>3.7952695620487269</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>58.491301632139113</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>11.541034217046603</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <v>0.70137402507788449</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>22.118262851278388</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>3.5411410609375373</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>61.836534182045945</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>11.936646530689668</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="15">
         <v>0.56741537504845696</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>20.580492254671562</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>2.2372638902693986</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>64.988411987662289</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>11.890357682983689</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="15">
         <v>0.30347418441306279</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
     </row>
     <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>16.192444935782447</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>1.6247018836606162</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>67.597856664676797</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>14.236650550616536</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="15">
         <v>0.34834596526361</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
     </row>
     <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>12.445445166661838</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>1.6445200242298628</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>70.726897699400084</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>14.83933496508334</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="15">
         <v>0.34380214462486791</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
     </row>
     <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>8.310893064369683</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>1.073106496496016</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>74.324427787072764</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>16.07873179929803</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="15">
         <v>0.21284085276351705</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
     </row>
     <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>4.9968439324063034</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>0.98079369105148939</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>77.879882015008121</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>15.789110431609798</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="15">
         <v>0.35336992992427774</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="21">
         <v>2.0021753777037454</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="21">
         <v>0.25128703410645303</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <v>86.331429063779879</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="21">
         <v>10.839489706223494</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="22">
         <v>0.57561881818641913</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="H23" s="24">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="H23" s="23">
         <v>2</v>
       </c>
-      <c r="I23" s="27" t="s">
+      <c r="I23" s="26" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="9"/>
-      <c r="I24" s="3" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="8"/>
+      <c r="I24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="25">
+      <c r="J24" s="24">
         <f>MAX(B7,B9:B21) - MIN(B7,B9:B21)</f>
         <v>23.468845185983923</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="I25" s="3" t="s">
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="I25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J25" s="25">
+      <c r="J25" s="24">
         <f>AVERAGE(B7,B9:B21)</f>
         <v>14.785301604321075</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="I26" s="3" t="s">
+      <c r="E26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="I26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J26" s="25">
+      <c r="J26" s="24">
         <f>MEDIAN(B7,B9:B21)</f>
         <v>15.799761969280436</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="25">
+      <c r="J27" s="24">
         <f>J26-J25</f>
         <v>1.0144603649593602</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J28" s="28">
+      <c r="J28" s="27">
         <f>J27/J24</f>
         <v>4.3225832243557374E-2</v>
       </c>
-      <c r="K28" s="29" t="s">
+      <c r="K28" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H30" s="24">
+      <c r="H30" s="23">
         <v>3</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="25">
-        <f>AVERAGE(B12,B14:B26)</f>
-        <v>14.880517600002861</v>
+      <c r="J30" s="24">
+        <f>AVERAGE(B7,B9:B21)</f>
+        <v>14.785301604321075</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J31" s="25">
-        <f>MEDIAN(B12,B14:B26)</f>
-        <v>16.192444935782447</v>
+      <c r="J31" s="24">
+        <f>MEDIAN(B7,B9:B21)</f>
+        <v>15.799761969280436</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="3" t="e">
+      <c r="J32" s="2" t="e">
         <f>MODE(B7,B9:B21)</f>
         <v>#N/A</v>
       </c>
